--- a/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -4939,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>58711</v>
+        <v>58712</v>
       </c>
       <c r="D89" t="n">
         <v>11363</v>
       </c>
       <c r="E89" t="n">
-        <v>233995279</v>
+        <v>233998268</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>24656</v>
+        <v>24658</v>
       </c>
       <c r="D90" t="n">
         <v>4502</v>
       </c>
       <c r="E90" t="n">
-        <v>146760119</v>
+        <v>146771367</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -18046,13 +18046,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="D346" t="n">
         <v>797</v>
       </c>
       <c r="E346" t="n">
-        <v>9183365</v>
+        <v>9186399</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -21871,13 +21871,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>24112</v>
+        <v>24114</v>
       </c>
       <c r="D421" t="n">
         <v>3778</v>
       </c>
       <c r="E421" t="n">
-        <v>154298440</v>
+        <v>154315254</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>10094</v>
+        <v>10095</v>
       </c>
       <c r="D422" t="n">
         <v>1498</v>
       </c>
       <c r="E422" t="n">
-        <v>101776872</v>
+        <v>101786287</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61059</v>
+        <v>61065</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>220868609</v>
+        <v>220905308</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163491</v>
+        <v>163502</v>
       </c>
       <c r="D434" t="n">
         <v>25454</v>
       </c>
       <c r="E434" t="n">
-        <v>710135786</v>
+        <v>710222821</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94528</v>
+        <v>94543</v>
       </c>
       <c r="D435" t="n">
         <v>12851</v>
       </c>
       <c r="E435" t="n">
-        <v>651802904</v>
+        <v>651966913</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50595</v>
+        <v>50598</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>540793887</v>
+        <v>540844519</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30938</v>
+        <v>30941</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>594570891</v>
+        <v>594877255</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10232</v>
+        <v>10234</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>479306472</v>
+        <v>479385570</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53166</v>
+        <v>53172</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117797858</v>
+        <v>117822663</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9098224</v>
+        <v>9102060</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11691</v>
+        <v>11692</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32947448</v>
+        <v>32953239</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20518835</v>
+        <v>20567318</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D520" t="n">
         <v>10</v>
       </c>
       <c r="E520" t="n">
-        <v>201090</v>
+        <v>207876</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27124,13 +27124,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>19218</v>
+        <v>19219</v>
       </c>
       <c r="D524" t="n">
         <v>3815</v>
       </c>
       <c r="E524" t="n">
-        <v>80794400</v>
+        <v>80803034</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -35335,13 +35335,13 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D685" t="n">
         <v>206</v>
       </c>
       <c r="E685" t="n">
-        <v>16775160</v>
+        <v>16784012</v>
       </c>
       <c r="F685" t="inlineStr">
         <is>
